--- a/LeetCodeNotes.xlsx
+++ b/LeetCodeNotes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ali\Desktop\LeetCodeSolutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{980F2543-1429-4E26-B605-5500E2CBC301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51DBEE26-8109-48BE-BA27-601B71BC8B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
   <si>
     <t>Category</t>
   </si>
@@ -163,6 +163,21 @@
   </si>
   <si>
     <t>Using Linked List, create anew node , make apointer to this node, loop through the other nodes,  change the pointer every time u found the smaller value</t>
+  </si>
+  <si>
+    <t>Hashtable,TwoPointer</t>
+  </si>
+  <si>
+    <t>141. Linked List Cycle</t>
+  </si>
+  <si>
+    <t>using hash map to map ListNode to value, if the ListNode exists return True, or use TwoPointers; one slow and one fast, if the fast catches slow return True else false</t>
+  </si>
+  <si>
+    <t>206.ReverseLinkedList</t>
+  </si>
+  <si>
+    <t>Create a Linkedlist = None , loop through the linked list and point every Node to it</t>
   </si>
 </sst>
 </file>
@@ -200,7 +215,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -223,19 +238,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -516,223 +544,247 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="132.88671875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="11.44140625" customWidth="1"/>
+    <col min="2" max="2" width="23.88671875" customWidth="1"/>
+    <col min="3" max="3" width="39.44140625" customWidth="1"/>
+    <col min="4" max="4" width="132.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="4" t="s">
+      <c r="B11" s="2"/>
+      <c r="C11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="4" t="s">
+      <c r="B12" s="2"/>
+      <c r="C12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="4" t="s">
+      <c r="B15" s="2"/>
+      <c r="C15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
